--- a/Pricing Logic/modules/manual/cart_rules_700_chunk_1.xlsx
+++ b/Pricing Logic/modules/manual/cart_rules_700_chunk_1.xlsx
@@ -399,24 +399,24 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2">
-        <v>413</v>
+        <v>143</v>
       </c>
       <c r="B2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C2">
-        <v>3</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3">
-        <v>414</v>
+        <v>144</v>
       </c>
       <c r="B3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C3">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
